--- a/K_results.xlsx
+++ b/K_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_085D8E3F95754C0E623554765865CEBA96DF981E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F174C2-1C4D-4E9C-B0FE-7D593F8009A4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_085DF2C7D147180E6235547658F396BFAB739822" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDB6D96-2D16-4100-8670-0DD537A481E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,36 +58,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,15 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,11 +404,12 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -468,18 +442,18 @@
         <v>100000</v>
       </c>
       <c r="B2" s="2">
-        <v>-6259219472351.4629</v>
-      </c>
-      <c r="C2" s="2">
+        <v>4863929488.909276</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.120644725412605</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -488,18 +462,18 @@
         <v>150000</v>
       </c>
       <c r="B3" s="2">
-        <v>-6259219472351.4629</v>
-      </c>
-      <c r="C3" s="2">
+        <v>4863929488.909276</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.120644725412605</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
@@ -508,18 +482,18 @@
         <v>1000000</v>
       </c>
       <c r="B4" s="2">
-        <v>-6260052702227.4678</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+        <v>4865311769.9452581</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>1.20644725412605</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -528,18 +502,18 @@
         <v>1500000</v>
       </c>
       <c r="B5" s="2">
-        <v>-6260052702227.4678</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.20644725412605</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+        <v>4866002910.4632483</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1.809670881189074</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -548,18 +522,18 @@
         <v>10000000</v>
       </c>
       <c r="B6" s="2">
-        <v>-6268148951823.8271</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
+        <v>4877752299.2690945</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>12.0644725412605</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -568,18 +542,18 @@
         <v>15000000</v>
       </c>
       <c r="B7" s="2">
-        <v>-6272646868266.25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
+        <v>4884663704.4490032</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
         <v>18.096708811890739</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -588,18 +562,18 @@
         <v>100000000</v>
       </c>
       <c r="B8" s="2">
-        <v>-6349111447787.4248</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
+        <v>5002157592.5074558</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>120.644725412605</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -608,250 +582,250 @@
         <v>200000000</v>
       </c>
       <c r="B9" s="2">
-        <v>-6439069776635.8662</v>
-      </c>
-      <c r="C9" s="2">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
+        <v>5140385696.1056356</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>241.28945082520991</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>300000000</v>
       </c>
-      <c r="B10" s="3">
-        <v>-6492912603758.082</v>
-      </c>
-      <c r="C10" s="3">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <v>250</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="2">
+        <v>5176993512.4624901</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
         <v>31.19284561592254</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>400000000</v>
       </c>
-      <c r="B11" s="3">
-        <v>-6543944976876.5996</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>250</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="2">
+        <v>5205693390.9676275</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
         <v>64.813071543840778</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>500000000</v>
       </c>
-      <c r="B12" s="3">
-        <v>-6594977349995.1123</v>
-      </c>
-      <c r="C12" s="3">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3">
-        <v>250</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12" s="2">
+        <v>5234393269.472765</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
         <v>98.433297471759005</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>600000000</v>
       </c>
-      <c r="B13" s="3">
-        <v>-6646009723113.6279</v>
-      </c>
-      <c r="C13" s="3">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>250</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="B13" s="2">
+        <v>5263093147.9779015</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
         <v>132.0535233996772</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>700000000</v>
       </c>
-      <c r="B14" s="3">
-        <v>-6673250803884.291</v>
-      </c>
-      <c r="C14" s="3">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3">
-        <v>250</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B14" s="2">
+        <v>5278413143.1239452</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14">
         <v>150</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>800000000</v>
       </c>
-      <c r="B15" s="3">
-        <v>-6673250803884.291</v>
-      </c>
-      <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3">
-        <v>250</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="B15" s="2">
+        <v>5278413143.1239452</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
         <v>150</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>900000000</v>
       </c>
-      <c r="B16" s="4">
-        <v>-8173554644154.9678</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="2">
+        <v>5602146805.4662056</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>31.85020750892771</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>1000000000</v>
       </c>
-      <c r="B17" s="4">
-        <v>-8263512973003.4121</v>
-      </c>
-      <c r="C17" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="2">
+        <v>5740374909.0643864</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>152.49493292153269</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>1200000000</v>
       </c>
-      <c r="B18" s="5">
-        <v>-8397037676661.377</v>
-      </c>
-      <c r="C18" s="5">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5">
-        <v>250</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="2">
+        <v>5886295377.5948591</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
         <v>40.068585260892952</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>1400000000</v>
       </c>
-      <c r="B19" s="5">
-        <v>-8499102422898.4023</v>
-      </c>
-      <c r="C19" s="5">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5">
-        <v>250</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="2">
+        <v>5943695134.605134</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
         <v>107.3090371167294</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>1600000000</v>
       </c>
-      <c r="B20" s="5">
-        <v>-8563903330284.293</v>
-      </c>
-      <c r="C20" s="5">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5">
-        <v>250</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="2">
+        <v>5980138240.3309565</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+      <c r="E20">
         <v>150</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>1800000000</v>
       </c>
-      <c r="B21">
-        <v>-8563903330284.293</v>
+      <c r="B21" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>250</v>
@@ -864,14 +838,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>2000000000</v>
       </c>
-      <c r="B22">
-        <v>-8563903330284.293</v>
+      <c r="B22" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -884,14 +858,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>3000000000</v>
       </c>
-      <c r="B23">
-        <v>-8563903330284.293</v>
+      <c r="B23" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>250</v>
@@ -904,14 +878,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>4000000000</v>
       </c>
-      <c r="B24">
-        <v>-8563903330284.293</v>
+      <c r="B24" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>250</v>
@@ -924,14 +898,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>5000000000</v>
       </c>
-      <c r="B25">
-        <v>-8563903330284.293</v>
+      <c r="B25" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>250</v>
@@ -944,14 +918,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>6000000000</v>
       </c>
-      <c r="B26">
-        <v>-8563903330284.293</v>
+      <c r="B26" s="2">
+        <v>5980138240.3309565</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>250</v>
